--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,183 +417,116 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2022-12-04</v>
+        <v>2022-12-05</v>
       </c>
       <c r="B2" t="str">
         <v/>
       </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
         <v>Consejo de Administración</v>
       </c>
-      <c r="F2" t="str">
-        <v>Hector Torres Durand</v>
-      </c>
       <c r="G2" t="str">
-        <v>Ingreso</v>
+        <v>Consejo de Administración</v>
       </c>
       <c r="H2" t="str">
-        <v>Consejo de Administración</v>
+        <v>Egreso</v>
       </c>
       <c r="I2" t="str">
-        <v>300</v>
+        <v>Tesorería</v>
       </c>
       <c r="J2" t="str">
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>5300</v>
+        <v>200</v>
+      </c>
+      <c r="L2" t="str">
+        <v>4800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2022-12-04</v>
+        <v>2022-12-06</v>
       </c>
       <c r="B3" t="str">
         <v/>
       </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
         <v>Consejo de Administración</v>
       </c>
-      <c r="F3" t="str">
-        <v>Hector Torres Durand</v>
-      </c>
       <c r="G3" t="str">
+        <v>Consejo de Administración</v>
+      </c>
+      <c r="H3" t="str">
         <v>Egreso</v>
       </c>
-      <c r="H3" t="str">
-        <v>Consejo de Administración</v>
-      </c>
       <c r="I3" t="str">
+        <v>Tesorería</v>
+      </c>
+      <c r="J3" t="str">
         <v/>
       </c>
-      <c r="J3" t="str">
-        <v>150</v>
-      </c>
       <c r="K3" t="str">
-        <v>5150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2022-12-04</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v>Transferencia a sucursal 2</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Consejo de Administración</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Hector Torres Durand</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Egreso</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Consejo de Administración</v>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v>150</v>
-      </c>
-      <c r="K4" t="str">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2022-12-04</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>Consejo de Administración</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Hector Torres Durand</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Ingreso</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Consejo de Administración</v>
-      </c>
-      <c r="I5" t="str">
-        <v>5000</v>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <v>10000</v>
+        <v>1500</v>
+      </c>
+      <c r="L3" t="str">
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,43 +539,46 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,43 +591,46 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,43 +643,46 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,43 +695,46 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,43 +747,46 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,43 +799,46 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -900,36 +851,39 @@
         <v>COMPROBANTE</v>
       </c>
       <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
         <v>PROVEEDOR</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>CONCEPTO</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>CAJA</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ÁREA</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>TIPO DE GASTO</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>RESP. DE GASTO</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>INGRESO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>EGRESO</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>SALDO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -404,6 +404,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>FECHA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>COMPROBANTE</v>
+      </c>
+      <c r="C1" t="str">
+        <v>NÚMERO</v>
+      </c>
+      <c r="D1" t="str">
+        <v>PROVEEDOR</v>
+      </c>
+      <c r="E1" t="str">
+        <v>CONCEPTO</v>
+      </c>
+      <c r="F1" t="str">
+        <v>CAJA</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ÁREA</v>
+      </c>
+      <c r="H1" t="str">
+        <v>TIPO DE GASTO</v>
+      </c>
+      <c r="I1" t="str">
+        <v>RESP. DE GASTO</v>
+      </c>
+      <c r="J1" t="str">
+        <v>INGRESO</v>
+      </c>
+      <c r="K1" t="str">
+        <v>EGRESO</v>
+      </c>
+      <c r="L1" t="str">
+        <v>SALDO</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2023-02-07</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>Consejo de Administración</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Consejo de Administración</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Egreso</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Tesorería</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v>200</v>
+      </c>
+      <c r="L2" t="str">
+        <v>7596.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -449,22 +536,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2022-12-05</v>
+        <v>2023-01-27</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>BOLETA DE VENTA ELECTRONICA</v>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>Covisur</v>
       </c>
       <c r="F2" t="str">
-        <v>Consejo de Administración</v>
+        <v xml:space="preserve">Administración Mina </v>
       </c>
       <c r="G2" t="str">
-        <v>Consejo de Administración</v>
+        <v xml:space="preserve">Administración Mina </v>
       </c>
       <c r="H2" t="str">
         <v>Egreso</v>
@@ -476,15 +563,15 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>200</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="str">
-        <v>4800</v>
+        <v>7996.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2022-12-06</v>
+        <v>2023-01-27</v>
       </c>
       <c r="B3" t="str">
         <v/>
@@ -496,10 +583,10 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>Consejo de Administración</v>
+        <v xml:space="preserve">Administración Mina </v>
       </c>
       <c r="G3" t="str">
-        <v>Consejo de Administración</v>
+        <v xml:space="preserve">Administración Mina </v>
       </c>
       <c r="H3" t="str">
         <v>Egreso</v>
@@ -511,67 +598,15 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="L3" t="str">
-        <v>3300</v>
+        <v>7796.1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>FECHA</v>
-      </c>
-      <c r="B1" t="str">
-        <v>COMPROBANTE</v>
-      </c>
-      <c r="C1" t="str">
-        <v>NÚMERO</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PROVEEDOR</v>
-      </c>
-      <c r="E1" t="str">
-        <v>CONCEPTO</v>
-      </c>
-      <c r="F1" t="str">
-        <v>CAJA</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ÁREA</v>
-      </c>
-      <c r="H1" t="str">
-        <v>TIPO DE GASTO</v>
-      </c>
-      <c r="I1" t="str">
-        <v>RESP. DE GASTO</v>
-      </c>
-      <c r="J1" t="str">
-        <v>INGRESO</v>
-      </c>
-      <c r="K1" t="str">
-        <v>EGRESO</v>
-      </c>
-      <c r="L1" t="str">
-        <v>SALDO</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -630,7 +665,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -673,16 +708,51 @@
         <v>SALDO</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2023-02-07</v>
+      </c>
+      <c r="B2" t="str">
+        <v>BOLETA DE VENTA ELECTRONICA</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>Despachos</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Despachos</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Ingreso</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Tesorería</v>
+      </c>
+      <c r="J2" t="str">
+        <v>1000</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>8656.1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -725,16 +795,51 @@
         <v>SALDO</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2023-02-07</v>
+      </c>
+      <c r="B2" t="str">
+        <v>BOLETA DE VENTA ELECTRONICA</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Proveedor 1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cascos</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Planeamiento</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Planeamiento</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Ingreso</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Tesorería</v>
+      </c>
+      <c r="J2" t="str">
+        <v>50</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>7656.1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,9 +882,44 @@
         <v>SALDO</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2023-02-07</v>
+      </c>
+      <c r="B2" t="str">
+        <v>RECIBO INTERNO</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Proveedor 1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Combustible</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Planta</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Planta</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Ingreso</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Tesorería</v>
+      </c>
+      <c r="J2" t="str">
+        <v>10</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>7606.1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2023-03-17</v>
+        <v>2023-03-15</v>
       </c>
       <c r="B2" t="str">
         <v/>
@@ -454,30 +454,30 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>prueba</v>
+        <v>prueba3</v>
       </c>
       <c r="G2" t="str">
-        <v>Administración</v>
+        <v>LOGISTICA</v>
       </c>
       <c r="H2" t="str">
-        <v>Ingreso</v>
+        <v>Egreso</v>
       </c>
       <c r="I2" t="str">
         <v>Tesorería</v>
       </c>
-      <c r="J2">
-        <v>100.5</v>
+      <c r="J2" t="str">
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2">
-        <v>150100</v>
+        <v>500.00</v>
+      </c>
+      <c r="L2" t="str">
+        <v>19500.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2023-03-17</v>
+        <v>2023-03-01</v>
       </c>
       <c r="B3" t="str">
         <v/>
@@ -489,10 +489,10 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>prueba</v>
+        <v>prueba3</v>
       </c>
       <c r="G3" t="str">
-        <v>Administración</v>
+        <v>ADMINISTRACION - ADMINISTRACIÓN JULIACA</v>
       </c>
       <c r="H3" t="str">
         <v>Ingreso</v>
@@ -500,57 +500,54 @@
       <c r="I3" t="str">
         <v>Tesorería</v>
       </c>
-      <c r="J3">
-        <v>10.5</v>
+      <c r="J3" t="str">
+        <v>300.00</v>
       </c>
       <c r="K3" t="str">
         <v/>
       </c>
-      <c r="L3">
-        <v>150110</v>
+      <c r="L3" t="str">
+        <v>19800.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2023-03-17</v>
+        <v>2023-03-16</v>
       </c>
       <c r="B4" t="str">
-        <v>Boleta de Venta</v>
-      </c>
-      <c r="C4" t="str">
-        <v>0001</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Proveedor 1</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>puntales</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>prueba</v>
+        <v>prueba3</v>
       </c>
       <c r="G4" t="str">
-        <v>Finanzas</v>
+        <v>LOGISTICA</v>
       </c>
       <c r="H4" t="str">
-        <v>Ingreso</v>
+        <v>Egreso</v>
       </c>
       <c r="I4" t="str">
         <v>Tesorería</v>
       </c>
-      <c r="J4">
-        <v>1000</v>
+      <c r="J4" t="str">
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4">
-        <v>151110</v>
+        <v>500.00</v>
+      </c>
+      <c r="L4" t="str">
+        <v>19300.00</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2023-03-17</v>
+        <v>2023-03-20</v>
       </c>
       <c r="B5" t="str">
         <v/>
@@ -562,10 +559,10 @@
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>prueba</v>
+        <v>prueba3</v>
       </c>
       <c r="G5" t="str">
-        <v>Administracion Mina</v>
+        <v>OPERADOR</v>
       </c>
       <c r="H5" t="str">
         <v>Ingreso</v>
@@ -573,19 +570,54 @@
       <c r="I5" t="str">
         <v>Tesorería</v>
       </c>
-      <c r="J5">
-        <v>100.5</v>
+      <c r="J5" t="str">
+        <v>1000.00</v>
       </c>
       <c r="K5" t="str">
         <v/>
       </c>
-      <c r="L5">
-        <v>151210</v>
+      <c r="L5" t="str">
+        <v>20300.00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2023-03-15</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>prueba3</v>
+      </c>
+      <c r="G6" t="str">
+        <v>SECRETARIA</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Egreso</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Tesorería</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="L6" t="str">
+        <v>20800.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>